--- a/src/frontend/devops-repository/static/users_import.xlsx
+++ b/src/frontend/devops-repository/static/users_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownLoads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\bk-repo\src\frontend\devops-repository\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FACC077-4A64-4C89-9C41-F8C52C4A904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A431219-98E9-4FF6-9320-3D725FE0BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="0" windowWidth="18490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户数据" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>账号(仅支持英文字母、数字，最长不超过32位)</t>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
     <t>邮箱</t>
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>账号(仅支持英文字母、数字，最长不超过32位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名(最长不超过32位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,10 +420,10 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.08203125" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -429,18 +431,18 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +450,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>